--- a/backend/src/templates/Order.xlsx
+++ b/backend/src/templates/Order.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28926"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{939854F4-6A52-4A1D-B2B0-4BCBE543C5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29AFA27-2FB6-4F24-9C1A-A56CB2464888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Заказчик</t>
   </si>
@@ -48,16 +48,16 @@
     <t>Опросный лист</t>
   </si>
   <si>
-    <t>Наименование ЗРА</t>
+    <t>Конструкция</t>
+  </si>
+  <si>
+    <t>Тип продукции</t>
   </si>
   <si>
     <t>Тип ЗРА</t>
   </si>
   <si>
-    <t>Модель</t>
-  </si>
-  <si>
-    <t>Конструкция</t>
+    <t>Тип запорного органа</t>
   </si>
   <si>
     <t>Стандарт</t>
@@ -78,7 +78,7 @@
     <t>Герметичность</t>
   </si>
   <si>
-    <t>Температура окружающей среды</t>
+    <t>Температурный диапазон</t>
   </si>
   <si>
     <t>Материал корпуса</t>
@@ -96,27 +96,20 @@
     <t>Присоединение</t>
   </si>
   <si>
+    <t>Материал ответных фланцев</t>
+  </si>
+  <si>
+    <t>Шпильки</t>
+  </si>
+  <si>
+    <t>Гайки</t>
+  </si>
+  <si>
     <t>Строительная длина</t>
   </si>
   <si>
-    <t xml:space="preserve">NACE </t>
-  </si>
-  <si>
-    <t>Ответные фланцы</t>
-  </si>
-  <si>
-    <t>Матириал ответных фланцев</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-Шпильки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Гайки</t>
-  </si>
-  <si>
-    <t>Размер трубы</t>
+Размер трубы</t>
   </si>
   <si>
     <t>Материал трубы</t>
@@ -141,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +170,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -198,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,13 +220,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,11 +253,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -583,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -594,7 +609,9 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
@@ -605,9 +622,10 @@
     <col min="22" max="22" width="14" customWidth="1"/>
     <col min="24" max="24" width="12.28515625" customWidth="1"/>
     <col min="25" max="25" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="58.5">
+    <row r="1" spans="1:31" ht="46.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,23 +707,17 @@
       <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
